--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1619.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1619.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155391389725278</v>
+        <v>0.7909169793128967</v>
       </c>
       <c r="B1">
-        <v>2.746222936984015</v>
+        <v>2.724210023880005</v>
       </c>
       <c r="C1">
-        <v>4.468670657860748</v>
+        <v>4.827226638793945</v>
       </c>
       <c r="D1">
-        <v>2.214046461701245</v>
+        <v>2.788937330245972</v>
       </c>
       <c r="E1">
-        <v>1.062247408636893</v>
+        <v>1.126551389694214</v>
       </c>
     </row>
   </sheetData>
